--- a/PGA/Results/course_history.xlsx
+++ b/PGA/Results/course_history.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikef\Documents\GitHub\Projects\Golf\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikef\Documents\GitHub\Projects\PGA\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73879709-32D2-4191-9BAB-40CBF0852D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD018F-BC03-4241-84C8-633C86984B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{709062AC-F26C-481D-BE11-98E453AB4FDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{709062AC-F26C-481D-BE11-98E453AB4FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AI$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
   <si>
     <t>event_name</t>
   </si>
@@ -266,12 +270,136 @@
   </si>
   <si>
     <t>OTT</t>
+  </si>
+  <si>
+    <t>GIR</t>
+  </si>
+  <si>
+    <t>SG APP &lt; 150</t>
+  </si>
+  <si>
+    <t>SG APP &gt; 150</t>
+  </si>
+  <si>
+    <t>FW WIDTH</t>
+  </si>
+  <si>
+    <t>MISS FW PEN</t>
+  </si>
+  <si>
+    <t>ROUGH PEN</t>
+  </si>
+  <si>
+    <t>NON-ROUGH PEN</t>
+  </si>
+  <si>
+    <t>PEN FRAC</t>
+  </si>
+  <si>
+    <t>FAIRWAY</t>
+  </si>
+  <si>
+    <t>ROUGH</t>
+  </si>
+  <si>
+    <t>BUNKER</t>
+  </si>
+  <si>
+    <t>PUTTS &lt; 5'</t>
+  </si>
+  <si>
+    <t>5' &lt; PUTTS &lt; 15'</t>
+  </si>
+  <si>
+    <t>PUTTS &gt; 15'</t>
+  </si>
+  <si>
+    <t>PENALTIES</t>
+  </si>
+  <si>
+    <t>RELOADS</t>
+  </si>
+  <si>
+    <t>TPC Twin Cities</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>Keene Trace Golf Club</t>
+  </si>
+  <si>
+    <t>Colonial Country Club</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Silverado Resort &amp; Spa (North)</t>
+  </si>
+  <si>
+    <t>Memorial Park Golf Course</t>
+  </si>
+  <si>
+    <t>TPC Deere Run</t>
+  </si>
+  <si>
+    <t>Southern Hills Country Club</t>
+  </si>
+  <si>
+    <t>Detroit Golf Club</t>
+  </si>
+  <si>
+    <t>Country Club of Jackson</t>
+  </si>
+  <si>
+    <t>TPC Summerlin</t>
+  </si>
+  <si>
+    <t>Muirfield Village Golf Club</t>
+  </si>
+  <si>
+    <t>Liberty National Golf Club</t>
+  </si>
+  <si>
+    <t>Sea Island GC (Seaside)</t>
+  </si>
+  <si>
+    <t>East Lake Golf Club</t>
+  </si>
+  <si>
+    <t>TPC River Highlands</t>
+  </si>
+  <si>
+    <t>Winged Foot GC</t>
+  </si>
+  <si>
+    <t>Torrey Pines South (U.S. Open)</t>
+  </si>
+  <si>
+    <t>TPC Potomac at Avenel Farm</t>
+  </si>
+  <si>
+    <t>TPC Southwind</t>
+  </si>
+  <si>
+    <t>The Concession Golf Club</t>
+  </si>
+  <si>
+    <t>Sedgefield Country Club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,12 +429,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBCBBB1-1233-41B7-9217-F34025ACC21E}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,4 +2215,2349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6EA2CE-A457-40C1-9685-FB164029232C}">
+  <dimension ref="A1:AI95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="27" width="12.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7171</v>
+      </c>
+      <c r="G2" s="2">
+        <v>460</v>
+      </c>
+      <c r="H2">
+        <v>193</v>
+      </c>
+      <c r="I2">
+        <v>-1.41</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-0.38</v>
+      </c>
+      <c r="M2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q2">
+        <v>291.2</v>
+      </c>
+      <c r="R2">
+        <v>16.2</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="T2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.4</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="X2" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0.747</v>
+      </c>
+      <c r="Z2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AB2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AD2">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AE2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AH2">
+        <v>0.76</v>
+      </c>
+      <c r="AI2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7215</v>
+      </c>
+      <c r="G3" s="2">
+        <v>463</v>
+      </c>
+      <c r="H3">
+        <v>190</v>
+      </c>
+      <c r="I3">
+        <v>-0.9</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="K3" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="M3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="R3">
+        <v>16.2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="T3">
+        <v>35.6</v>
+      </c>
+      <c r="U3">
+        <v>0.41</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="X3" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AD3">
+        <v>-0.06</v>
+      </c>
+      <c r="AE3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AG3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AH3">
+        <v>0.76</v>
+      </c>
+      <c r="AI3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7357</v>
+      </c>
+      <c r="G4">
+        <v>466</v>
+      </c>
+      <c r="H4">
+        <v>209</v>
+      </c>
+      <c r="I4">
+        <v>2.52</v>
+      </c>
+      <c r="J4">
+        <v>0.23</v>
+      </c>
+      <c r="K4">
+        <v>0.23</v>
+      </c>
+      <c r="L4">
+        <v>-0.18</v>
+      </c>
+      <c r="M4">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>-0.107</v>
+      </c>
+      <c r="P4">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="R4" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="T4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.36</v>
+      </c>
+      <c r="V4">
+        <v>0.27</v>
+      </c>
+      <c r="W4">
+        <v>0.25</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="Z4">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="AA4">
+        <v>-0.111</v>
+      </c>
+      <c r="AB4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="AD4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AE4">
+        <v>-2E-3</v>
+      </c>
+      <c r="AF4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AG4">
+        <v>-0.02</v>
+      </c>
+      <c r="AH4">
+        <v>0.82</v>
+      </c>
+      <c r="AI4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7345</v>
+      </c>
+      <c r="G5" s="2">
+        <v>464</v>
+      </c>
+      <c r="H5">
+        <v>210</v>
+      </c>
+      <c r="I5">
+        <v>1.39</v>
+      </c>
+      <c r="J5">
+        <v>0.16</v>
+      </c>
+      <c r="K5">
+        <v>0.18</v>
+      </c>
+      <c r="L5">
+        <v>-0.26</v>
+      </c>
+      <c r="M5">
+        <v>1E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="P5">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="Q5">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="R5">
+        <v>18.2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="T5">
+        <v>30.4</v>
+      </c>
+      <c r="U5">
+        <v>0.39</v>
+      </c>
+      <c r="V5">
+        <v>0.34</v>
+      </c>
+      <c r="W5">
+        <v>0.27</v>
+      </c>
+      <c r="X5" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="AA5">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="AD5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AE5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF5">
+        <v>-1E-3</v>
+      </c>
+      <c r="AG5">
+        <v>1E-3</v>
+      </c>
+      <c r="AH5">
+        <v>0.71</v>
+      </c>
+      <c r="AI5">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7357</v>
+      </c>
+      <c r="G6" s="2">
+        <v>468</v>
+      </c>
+      <c r="H6" s="2">
+        <v>201</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="J6">
+        <v>0.22</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6">
+        <v>-0.26</v>
+      </c>
+      <c r="M6">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="O6">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="P6">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="R6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="T6" s="5">
+        <v>33</v>
+      </c>
+      <c r="U6">
+        <v>0.42</v>
+      </c>
+      <c r="V6">
+        <v>0.42</v>
+      </c>
+      <c r="W6">
+        <v>0.24</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="AA6">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="AB6">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="AC6">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="AD6">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="AE6">
+        <v>-1E-3</v>
+      </c>
+      <c r="AF6">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="AG6">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="S8" s="7"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="S9" s="7"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="S10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="S12" s="7"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6992</v>
+      </c>
+      <c r="G13" s="2">
+        <v>445</v>
+      </c>
+      <c r="H13">
+        <v>193</v>
+      </c>
+      <c r="I13">
+        <v>-0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.03</v>
+      </c>
+      <c r="K13">
+        <v>0.01</v>
+      </c>
+      <c r="L13">
+        <v>-0.2</v>
+      </c>
+      <c r="M13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P13">
+        <v>-0.05</v>
+      </c>
+      <c r="Q13">
+        <v>281.7</v>
+      </c>
+      <c r="R13">
+        <v>20.7</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.622</v>
+      </c>
+      <c r="T13" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="U13">
+        <v>0.39</v>
+      </c>
+      <c r="V13">
+        <v>0.37</v>
+      </c>
+      <c r="W13">
+        <v>0.33</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AB13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AG13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH13">
+        <v>0.26</v>
+      </c>
+      <c r="AI13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44346</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7019</v>
+      </c>
+      <c r="G14">
+        <v>445</v>
+      </c>
+      <c r="H14">
+        <v>198</v>
+      </c>
+      <c r="I14">
+        <v>0.47</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="L14">
+        <v>-0.21</v>
+      </c>
+      <c r="M14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O14">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="P14">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="Q14">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="R14">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="T14">
+        <v>27</v>
+      </c>
+      <c r="U14">
+        <v>0.39</v>
+      </c>
+      <c r="V14">
+        <v>0.36</v>
+      </c>
+      <c r="W14">
+        <v>0.41</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="Z14">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="AA14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AD14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AE14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AF14">
+        <v>0.02</v>
+      </c>
+      <c r="AG14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AH14">
+        <v>0.27</v>
+      </c>
+      <c r="AI14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44647</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="S16" s="7"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43856</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="S17" s="7"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44227</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="S18" s="7"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44590</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="S19" s="7"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44458</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="S20" s="7"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44514</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="S21" s="7"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44388</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="S22" s="7"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="S23" s="7"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="S24" s="7"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44339</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="S25" s="7"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="7"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="S26" s="7"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="S27" s="7"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="7"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44304</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="S28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="S29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="S30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="7"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="S31" s="7"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="7"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="S32" s="7"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="S33" s="7"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="7"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44472</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="S34" s="7"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="S35" s="7"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44570</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="S36" s="7"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44479</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="S37" s="7"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="7"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="S38" s="7"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="7"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="S39" s="7"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="7"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44577</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="7"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43849</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="S41" s="7"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="7"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="S42" s="7"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="7"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44584</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="S43" s="7"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="7"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="S44" s="7"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="7"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="S45" s="7"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="7"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44612</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="S46" s="7"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="7"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="S47" s="7"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="7"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="S48" s="7"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="7"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44619</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="S49" s="7"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="7"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="S50" s="7"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="7"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44661</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="S51" s="7"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="7"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="S52" s="7"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="7"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="S53" s="7"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="7"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44353</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="S54" s="7"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="7"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="S55" s="7"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="7"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44430</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="S56" s="7"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="7"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44269</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="S57" s="7"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="7"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44633</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="S58" s="7"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="7"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="S59" s="7"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="7"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44521</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="S60" s="7"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="7"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="S61" s="7"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="7"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44444</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="S62" s="7"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="7"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44010</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="S63" s="7"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="7"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44374</v>
+      </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="S64" s="7"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="7"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="S65" s="7"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="7"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="1">
+        <v>44367</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="S66" s="7"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="7"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="S67" s="7"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="7"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="1">
+        <v>44654</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="S68" s="7"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="7"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1">
+        <v>44318</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="S69" s="7"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="7"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="S70" s="7"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="7"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="S71" s="7"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="7"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44234</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="S72" s="7"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="7"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="S73" s="7"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="7"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44605</v>
+      </c>
+      <c r="C74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="S74" s="7"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="7"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="S75" s="7"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="7"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="S76" s="7"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="7"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44416</v>
+      </c>
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="S77" s="7"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="7"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43884</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="S78" s="7"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="7"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="S79" s="7"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="7"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44423</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="S80" s="7"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="7"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="S81" s="7"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="7"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D95" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AI1" xr:uid="{7D6EA2CE-A457-40C1-9685-FB164029232C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>